--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>http://iacloud.ceway.com.cn/gatewaytest/service-demand/work/getUserSpendTimeByLoginName.api</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,31 +34,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/gatewaytest/api/token/create.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应耗时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'encData':'{"loginName":"cw4996",  "password":"321123",   "appId":"ceway1000",   "appSecret":"VJPXUHUqy0CU4GV0gczqEjDBNSSdZWfRitBdCJjhcUU0eqGS5Nga0CHqDd1kPOIZ"}'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>http://iacloud.ceway.com.cn/gatewaytest/api/token/create.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'encData':'{"loginName":"cw4996",  "password":"321123",   "appId":"ceway1000",   "appSecret":"VJPXUHUqy0CU4GV0gczqEjDBNSSdZWfRitBdCJjhcUU0eqGS5Nga0CHqDd1kPOIZ"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hearder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
+  </si>
+  <si>
+    <t>{'encData':'{"loginName":"cw4996",  "password":"321123",   "appId":"ceway1000",   "appSecret":"VJPXUHUqy0CU4GV0gczqEjDBNSSdZWfRitBdCJjhcUU0eqGS5Nga0CHqDd1kPOIZ"}'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -116,7 +155,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -125,6 +164,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -421,86 +469,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="92.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="59" style="1" customWidth="1"/>
-    <col min="4" max="4" width="59.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="11.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="34.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="54">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:11" ht="51" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="G2" s="4">
+        <v>200</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="3" spans="1:11">
+      <c r="D3" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="162">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="297">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2" display="http://iacloud.ceway.com.cn/gatewaytest/api/token/create.do"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>http://iacloud.ceway.com.cn/gatewaytest/service-demand/work/getUserSpendTimeByLoginName.api</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,7 +97,23 @@
     <t>http://iacloud.ceway.com.cn/gatewaytest/api/token/create.do</t>
   </si>
   <si>
-    <t>{'encData':'{"loginName":"cw4996",  "password":"321123",   "appId":"ceway1000",   "appSecret":"VJPXUHUqy0CU4GV0gczqEjDBNSSdZWfRitBdCJjhcUU0eqGS5Nga0CHqDd1kPOIZ"}'}</t>
+    <t>msg=&gt;OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success=&gt;false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://iacloud.ceway.com.cn/gatewaytest/service-demand/work/getWorkList.api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type": "application/x-www-form-urlencoded"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'encData':'{'currPage':'1','searchContent':'完成','searchUser':'',startDate:'2018-1-2',endDate:'2018-01-23',workType:'SEND',status:'WORKING'}'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +488,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F10" activeCellId="1" sqref="E3 F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -537,25 +553,40 @@
         <v>19</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4">
-        <v>200</v>
-      </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="D3" s="5"/>
+    <row r="3" spans="1:11" ht="81">
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>http://iacloud.ceway.com.cn/gatewaytest/service-demand/work/getUserSpendTimeByLoginName.api</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,86 +34,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/gatewaytest/api/token/create.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应耗时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'encData':'{"loginName":"cw4996",  "password":"321123",   "appId":"ceway1000",   "appSecret":"VJPXUHUqy0CU4GV0gczqEjDBNSSdZWfRitBdCJjhcUU0eqGS5Nga0CHqDd1kPOIZ"}'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://iacloud.ceway.com.cn/gatewaytest/api/token/create.do</t>
+  </si>
+  <si>
+    <t>msg=&gt;OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://iacloud.ceway.com.cn/gatewaytest/service-demand/work/getWorkList.api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type": "application/x-www-form-urlencoded"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'encData':'{"currPage":1,"searchUser":"","startDate":"","endDate":"","workType":"","statusArr":null}'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg=&gt;查询成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'encData':'{"loginName":"cw4996",  "password":"321123",   "appId":"ceway1000",   "appSecret":"VJPXUHUqy0CU4GV0gczqEjDBNSSdZWfRitBdCJjhcUU0eqGS5Nga0CHqDd1kPOIZ"}'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/gatewaytest/api/token/create.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>响应耗时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>harder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'encData':'{"loginName":"cw4996",  "password":"321123",   "appId":"ceway1000",   "appSecret":"VJPXUHUqy0CU4GV0gczqEjDBNSSdZWfRitBdCJjhcUU0eqGS5Nga0CHqDd1kPOIZ"}'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://iacloud.ceway.com.cn/gatewaytest/api/token/create.do</t>
-  </si>
-  <si>
-    <t>msg=&gt;OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>success=&gt;false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://iacloud.ceway.com.cn/gatewaytest/service-demand/work/getWorkList.api</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Content-Type": "application/x-www-form-urlencoded"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'encData':'{'currPage':'1','searchContent':'完成','searchUser':'',startDate:'2018-1-2',endDate:'2018-01-23',workType:'SEND',status:'WORKING'}'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +492,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" activeCellId="1" sqref="E3 F10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -506,37 +510,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="51" customHeight="1">
@@ -544,39 +548,39 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="67.5">
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="81">
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -616,10 +620,10 @@
     </row>
     <row r="2" spans="1:4" ht="297">
       <c r="B2" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
